--- a/KulturhazakMailcimesListaTeszt.xlsx
+++ b/KulturhazakMailcimesListaTeszt.xlsx
@@ -10,12 +10,11 @@
     <sheet name="talalt_kulturalis_intezmenyek_e" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Intézmény neve</t>
   </si>
@@ -48,6 +47,9 @@
   </si>
   <si>
     <t>Foodmaker</t>
+  </si>
+  <si>
+    <t>ikrexfood@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -912,7 +914,7 @@
   <dimension ref="A1:F219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +965,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
